--- a/第二十七届华东杯大学生数学建模邀请赛/code/data/new_各工序故障损失.xlsx
+++ b/第二十七届华东杯大学生数学建模邀请赛/code/data/new_各工序故障损失.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,21 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>平均故障率(次/小时)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>总故障次数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>单次损失(元)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>总故障损失</t>
         </is>
       </c>
@@ -460,7 +475,16 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>230400.0000000001</v>
+        <v>0.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4608.000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>229440.0000000001</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +497,16 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>288000</v>
+        <v>0.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5760</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>287100</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +519,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>86400</v>
+        <v>0.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2880</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" t="n">
+        <v>85860</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +541,16 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>69120.00000000001</v>
+        <v>0.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2304</v>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" t="n">
+        <v>69048.00000000001</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +563,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>17280</v>
+        <v>0.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1728</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17262</v>
       </c>
     </row>
   </sheetData>
